--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +35,14 @@
   </si>
   <si>
     <t>桂林电子科技大学花江校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +395,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -408,31 +412,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>18815832057</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12345</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12345678901</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +399,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -422,8 +426,8 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>123456</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
